--- a/timeseries_test3.xlsx
+++ b/timeseries_test3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CA3DE4-7C8F-439D-92F8-63424C97200B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19246E89-5E79-46A6-9B2A-2AFE8A4A2A82}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5580" xr2:uid="{3FBB2BFD-78C0-48D5-BF04-846B02A3EE22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3FBB2BFD-78C0-48D5-BF04-846B02A3EE22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8298392A-9FC0-4855-BC14-9D019F854B13}">
   <dimension ref="A1:AD102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +589,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.93526928666981868</v>
@@ -681,8 +681,8 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>A2+1</f>
-        <v>2</v>
+        <f>5+A2</f>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>0.93526928666981868</v>
@@ -774,8 +774,8 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
-        <v>3</v>
+        <f t="shared" ref="A4:A67" si="0">5+A3</f>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>0.93526928666981868</v>
@@ -868,7 +868,7 @@
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>0.93526928666981868</v>
@@ -961,7 +961,7 @@
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>0.93526928666981868</v>
@@ -1054,7 +1054,7 @@
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1">
         <v>0.93526928666981868</v>
@@ -1147,7 +1147,7 @@
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>0.93526928666981868</v>
@@ -1240,7 +1240,7 @@
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1">
         <v>0.93526928666981868</v>
@@ -1333,7 +1333,7 @@
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1">
         <v>0.93526928666981868</v>
@@ -1426,7 +1426,7 @@
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1">
         <v>0.93526928666981868</v>
@@ -1519,7 +1519,7 @@
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1">
         <v>0.93526928666981868</v>
@@ -1612,7 +1612,7 @@
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1">
         <v>0.93526928666981868</v>
@@ -1705,7 +1705,7 @@
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1">
         <v>0.93526928666981868</v>
@@ -1798,7 +1798,7 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1">
         <v>0.93526928666981868</v>
@@ -1891,7 +1891,7 @@
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1">
         <v>0.93526928666981868</v>
@@ -1984,7 +1984,7 @@
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1">
         <v>0.93526928666981868</v>
@@ -2077,7 +2077,7 @@
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="B18" s="1">
         <v>0.93526928666981868</v>
@@ -2170,7 +2170,7 @@
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="B19" s="1">
         <v>0.93526928666981868</v>
@@ -2263,7 +2263,7 @@
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="B20" s="1">
         <v>0.93526928666981868</v>
@@ -2356,7 +2356,7 @@
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="B21" s="1">
         <v>0.93526928666981868</v>
@@ -2449,7 +2449,7 @@
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="B22" s="1">
         <v>0.93526928666981868</v>
@@ -2542,7 +2542,7 @@
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="B23" s="1">
         <v>0.93526928666981868</v>
@@ -2635,7 +2635,7 @@
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="B24" s="1">
         <v>0.93526928666981868</v>
@@ -2728,7 +2728,7 @@
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="B25" s="1">
         <v>0.93526928666981868</v>
@@ -2821,7 +2821,7 @@
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="B26" s="1">
         <v>0.93526928666981868</v>
@@ -2914,7 +2914,7 @@
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="B27" s="1">
         <v>0.93526928666981868</v>
@@ -3007,7 +3007,7 @@
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="B28" s="1">
         <v>0.93526928666981868</v>
@@ -3100,7 +3100,7 @@
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="B29" s="1">
         <v>0.93526928666981868</v>
@@ -3193,7 +3193,7 @@
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="B30" s="1">
         <v>0.93526928666981868</v>
@@ -3286,7 +3286,7 @@
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="B31" s="1">
         <v>0.93526928666981868</v>
@@ -3379,7 +3379,7 @@
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="B32" s="1">
         <v>0.93526928666981868</v>
@@ -3472,7 +3472,7 @@
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="B33" s="1">
         <v>0.93526928666981868</v>
@@ -3565,7 +3565,7 @@
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="B34" s="1">
         <v>0.93526928666981868</v>
@@ -3658,7 +3658,7 @@
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="B35" s="1">
         <v>0.93526928666981868</v>
@@ -3751,7 +3751,7 @@
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B36" s="1">
         <v>0.93526928666981868</v>
@@ -3844,7 +3844,7 @@
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="B37" s="1">
         <v>0.93526928666981868</v>
@@ -3937,7 +3937,7 @@
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="B38" s="1">
         <v>0.93526928666981868</v>
@@ -4030,7 +4030,7 @@
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="B39" s="1">
         <v>0.93526928666981868</v>
@@ -4123,7 +4123,7 @@
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="B40" s="1">
         <v>0.93526928666981868</v>
@@ -4216,7 +4216,7 @@
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="B41" s="1">
         <v>0.93526928666981868</v>
@@ -4309,7 +4309,7 @@
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="B42" s="1">
         <v>0.93526928666981868</v>
@@ -4402,7 +4402,7 @@
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="B43" s="1">
         <v>0.93526928666981868</v>
@@ -4495,7 +4495,7 @@
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="B44" s="1">
         <v>0.93526928666981868</v>
@@ -4588,7 +4588,7 @@
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="B45" s="1">
         <v>0.93526928666981868</v>
@@ -4681,7 +4681,7 @@
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="B46" s="1">
         <v>0.93526928666981868</v>
@@ -4774,7 +4774,7 @@
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="B47" s="1">
         <v>0.93526928666981868</v>
@@ -4867,7 +4867,7 @@
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="B48" s="1">
         <v>0.93526928666981868</v>
@@ -4960,7 +4960,7 @@
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="B49" s="1">
         <v>0.93526928666981868</v>
@@ -5053,7 +5053,7 @@
     <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>240</v>
       </c>
       <c r="B50" s="1">
         <v>0.93526928666981868</v>
@@ -5146,7 +5146,7 @@
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>245</v>
       </c>
       <c r="B51" s="1">
         <v>0.93526928666981868</v>
@@ -5239,7 +5239,7 @@
     <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="B52" s="1">
         <v>0.93526928666981868</v>
@@ -5332,7 +5332,7 @@
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>255</v>
       </c>
       <c r="B53" s="1">
         <v>0.93526928666981868</v>
@@ -5425,7 +5425,7 @@
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>260</v>
       </c>
       <c r="B54" s="1">
         <v>0.93526928666981868</v>
@@ -5518,7 +5518,7 @@
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>265</v>
       </c>
       <c r="B55" s="1">
         <v>0.93526928666981868</v>
@@ -5611,7 +5611,7 @@
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="B56" s="1">
         <v>0.93526928666981868</v>
@@ -5704,7 +5704,7 @@
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>275</v>
       </c>
       <c r="B57" s="1">
         <v>0.93526928666981868</v>
@@ -5797,7 +5797,7 @@
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>280</v>
       </c>
       <c r="B58" s="1">
         <v>0.93526928666981868</v>
@@ -5890,7 +5890,7 @@
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>285</v>
       </c>
       <c r="B59" s="1">
         <v>0.93526928666981868</v>
@@ -5983,7 +5983,7 @@
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>290</v>
       </c>
       <c r="B60" s="1">
         <v>0.93526928666981868</v>
@@ -6076,7 +6076,7 @@
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>295</v>
       </c>
       <c r="B61" s="1">
         <v>0.93526928666981868</v>
@@ -6169,7 +6169,7 @@
     <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>300</v>
       </c>
       <c r="B62" s="1">
         <v>0.93526928666981868</v>
@@ -6262,7 +6262,7 @@
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>305</v>
       </c>
       <c r="B63" s="1">
         <v>0.93526928666981868</v>
@@ -6355,7 +6355,7 @@
     <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>310</v>
       </c>
       <c r="B64" s="1">
         <v>0.93526928666981868</v>
@@ -6448,7 +6448,7 @@
     <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>315</v>
       </c>
       <c r="B65" s="1">
         <v>0.93526928666981868</v>
@@ -6541,7 +6541,7 @@
     <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>320</v>
       </c>
       <c r="B66" s="1">
         <v>0.93526928666981868</v>
@@ -6634,7 +6634,7 @@
     <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>325</v>
       </c>
       <c r="B67" s="1">
         <v>0.93526928666981868</v>
@@ -6726,8 +6726,8 @@
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:A101" si="1">A67+1</f>
-        <v>67</v>
+        <f t="shared" ref="A68:A101" si="1">5+A67</f>
+        <v>330</v>
       </c>
       <c r="B68" s="1">
         <v>0.93526928666981868</v>
@@ -6820,7 +6820,7 @@
     <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>335</v>
       </c>
       <c r="B69" s="1">
         <v>0.93526928666981868</v>
@@ -6913,7 +6913,7 @@
     <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>340</v>
       </c>
       <c r="B70" s="1">
         <v>0.93526928666981868</v>
@@ -7006,7 +7006,7 @@
     <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>345</v>
       </c>
       <c r="B71" s="1">
         <v>0.93526928666981868</v>
@@ -7099,7 +7099,7 @@
     <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>350</v>
       </c>
       <c r="B72" s="1">
         <v>0.93526928666981868</v>
@@ -7192,7 +7192,7 @@
     <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>355</v>
       </c>
       <c r="B73" s="1">
         <v>0.93526928666981868</v>
@@ -7285,7 +7285,7 @@
     <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>360</v>
       </c>
       <c r="B74" s="1">
         <v>0.93526928666981868</v>
@@ -7378,7 +7378,7 @@
     <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>365</v>
       </c>
       <c r="B75" s="1">
         <v>0.93526928666981868</v>
@@ -7471,7 +7471,7 @@
     <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>370</v>
       </c>
       <c r="B76" s="1">
         <v>0.93526928666981868</v>
@@ -7564,7 +7564,7 @@
     <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="B77" s="1">
         <v>0.93526928666981868</v>
@@ -7657,7 +7657,7 @@
     <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="B78" s="1">
         <v>0.93526928666981868</v>
@@ -7750,7 +7750,7 @@
     <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="B79" s="1">
         <v>0.93526928666981868</v>
@@ -7843,7 +7843,7 @@
     <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>390</v>
       </c>
       <c r="B80" s="1">
         <v>0.93526928666981868</v>
@@ -7936,7 +7936,7 @@
     <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="B81" s="1">
         <v>0.93526928666981868</v>
@@ -8029,7 +8029,7 @@
     <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="B82" s="1">
         <v>0.93526928666981868</v>
@@ -8122,7 +8122,7 @@
     <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>405</v>
       </c>
       <c r="B83" s="1">
         <v>0.93526928666981868</v>
@@ -8215,7 +8215,7 @@
     <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>410</v>
       </c>
       <c r="B84" s="1">
         <v>0.93526928666981868</v>
@@ -8308,7 +8308,7 @@
     <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>415</v>
       </c>
       <c r="B85" s="1">
         <v>0.93526928666981868</v>
@@ -8401,7 +8401,7 @@
     <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>420</v>
       </c>
       <c r="B86" s="1">
         <v>0.93526928666981868</v>
@@ -8494,7 +8494,7 @@
     <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>425</v>
       </c>
       <c r="B87" s="1">
         <v>0.93526928666981868</v>
@@ -8587,7 +8587,7 @@
     <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>430</v>
       </c>
       <c r="B88" s="1">
         <v>0.93526928666981868</v>
@@ -8680,7 +8680,7 @@
     <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>435</v>
       </c>
       <c r="B89" s="1">
         <v>0.93526928666981868</v>
@@ -8773,7 +8773,7 @@
     <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>440</v>
       </c>
       <c r="B90" s="1">
         <v>0.93526928666981868</v>
@@ -8866,7 +8866,7 @@
     <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>445</v>
       </c>
       <c r="B91" s="1">
         <v>0.93526928666981868</v>
@@ -8959,7 +8959,7 @@
     <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>450</v>
       </c>
       <c r="B92" s="1">
         <v>0.93526928666981868</v>
@@ -9052,7 +9052,7 @@
     <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>455</v>
       </c>
       <c r="B93" s="1">
         <v>0.93526928666981868</v>
@@ -9145,7 +9145,7 @@
     <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>460</v>
       </c>
       <c r="B94" s="1">
         <v>0.93526928666981868</v>
@@ -9238,7 +9238,7 @@
     <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>465</v>
       </c>
       <c r="B95" s="1">
         <v>0.93526928666981868</v>
@@ -9331,7 +9331,7 @@
     <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>470</v>
       </c>
       <c r="B96" s="1">
         <v>0.93526928666981868</v>
@@ -9424,7 +9424,7 @@
     <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>475</v>
       </c>
       <c r="B97" s="1">
         <v>0.93526928666981868</v>
@@ -9517,7 +9517,7 @@
     <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>480</v>
       </c>
       <c r="B98" s="1">
         <v>0.93526928666981868</v>
@@ -9610,7 +9610,7 @@
     <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>485</v>
       </c>
       <c r="B99" s="1">
         <v>0.93526928666981868</v>
@@ -9703,7 +9703,7 @@
     <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>490</v>
       </c>
       <c r="B100" s="1">
         <v>0.93526928666981868</v>
@@ -9796,7 +9796,7 @@
     <row r="101" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>495</v>
       </c>
       <c r="B101" s="1">
         <v>0.93526928666981868</v>
